--- a/users_info/users_info.xlsx
+++ b/users_info/users_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovicalamonica/Documents/UCBM/Articolo_tesi/FeelPix/High_emotional_stimuli/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovicalamonica/Documents/UCBM/Articolo_tesi/FeelPix/users_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BEB76-7584-B64B-B727-ACE43718D121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72DC300-36B7-4C4D-BADB-100F736DA2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="500" windowWidth="22580" windowHeight="15720" xr2:uid="{14C7F54D-F59D-414C-B1C0-B24F92C8428C}"/>
+    <workbookView xWindow="6220" yWindow="660" windowWidth="22580" windowHeight="15720" xr2:uid="{14C7F54D-F59D-414C-B1C0-B24F92C8428C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>Birth</t>
   </si>
@@ -60,13 +60,109 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Test_time</t>
+  </si>
+  <si>
+    <t>16-12-2022, 11:32</t>
+  </si>
+  <si>
+    <t>16-12-2022, 11:51</t>
+  </si>
+  <si>
+    <t>16-12-2022, 12:11</t>
+  </si>
+  <si>
+    <t>16-12-2022, 13:37</t>
+  </si>
+  <si>
+    <t>16-12-2022, 14:09</t>
+  </si>
+  <si>
+    <t>16-12-2022, 14:19</t>
+  </si>
+  <si>
+    <t>16-12-2022, 14:45</t>
+  </si>
+  <si>
+    <t>16-12-2022, 15:18</t>
+  </si>
+  <si>
+    <t>16-12-2022, 15:32</t>
+  </si>
+  <si>
+    <t>16-12-2022, 15:41</t>
+  </si>
+  <si>
+    <t>16-12-2022, 15:51</t>
+  </si>
+  <si>
+    <t>16-12-2022, 16:08</t>
+  </si>
+  <si>
+    <t>16-12-2022, 16:40</t>
+  </si>
+  <si>
+    <t>16-12-2022, 17:15</t>
+  </si>
+  <si>
+    <t>16-12-2022, 17:25</t>
+  </si>
+  <si>
+    <t>16-12-2022, 17:35</t>
+  </si>
+  <si>
+    <t>18-12-2022, 13:35</t>
+  </si>
+  <si>
+    <t>18-12-2022, 18:53</t>
+  </si>
+  <si>
+    <t>16-12-2022, 11:45</t>
+  </si>
+  <si>
+    <t>16-12-2022, 12:23</t>
+  </si>
+  <si>
+    <t>16-12-2022, 13:27</t>
+  </si>
+  <si>
+    <t>16-12-2022, 13:46</t>
+  </si>
+  <si>
+    <t>16-12-2022, 13:57</t>
+  </si>
+  <si>
+    <t>16-12-2022, 14:31</t>
+  </si>
+  <si>
+    <t>16-12-2022, 14:56</t>
+  </si>
+  <si>
+    <t>16-12-2022, 15:06</t>
+  </si>
+  <si>
+    <t>16-12-2022, 16:28</t>
+  </si>
+  <si>
+    <t>16-12-2022, 16:54</t>
+  </si>
+  <si>
+    <t>16-12-2022, 17:03</t>
+  </si>
+  <si>
+    <t>18-12-2022, 14:23</t>
+  </si>
+  <si>
+    <t>18-12-2022, 14:08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +173,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,24 +206,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,15 +543,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13393F53-5D28-FC4E-AE89-D6CDDD905107}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -457,8 +567,11 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -471,400 +584,487 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36050</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>36070</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
         <v>35922</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2">
+        <v>34518</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2">
+        <v>35281</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
         <v>35778</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2">
+        <v>35540</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2">
+        <v>35647</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B11" s="2">
         <v>34664</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
         <v>27819</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2">
+        <v>35074</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
         <v>19405</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2">
+        <v>37069</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2">
+        <v>37316</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B17" s="2">
         <v>34673</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B18" s="2">
         <v>34851</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B19" s="2">
         <v>32501</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B20" s="2">
         <v>27325</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B21" s="2">
         <v>31547</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2">
+        <v>35418</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B23" s="2">
         <v>34328</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2">
+        <v>36054</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2">
+        <v>36028</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B26" s="2">
         <v>36088</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B27" s="2">
         <v>34690</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B28" s="2">
         <v>34747</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="C28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B29" s="2">
         <v>35553</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>25043</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>50</v>
-      </c>
-      <c r="B20" s="2">
-        <v>36050</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>51</v>
-      </c>
-      <c r="B21" s="2">
-        <v>34518</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2">
-        <v>35281</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2">
-        <v>35540</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>54</v>
-      </c>
-      <c r="B24" s="2">
-        <v>35647</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>55</v>
-      </c>
-      <c r="B25" s="2">
-        <v>35074</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2">
-        <v>37069</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2">
-        <v>37316</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2">
-        <v>35418</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>59</v>
-      </c>
-      <c r="B29" s="2">
-        <v>36054</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2">
-        <v>36028</v>
+        <v>24595</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>61</v>
       </c>
@@ -877,22 +1077,31 @@
       <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>24595</v>
+        <v>25043</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E32">
+    <sortCondition ref="E1:E32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>